--- a/teaching/traditional_assets/database/data/mauritius/mauritius_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/mauritius/mauritius_financial_svcs_non_bank_insurance.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.11</v>
+        <v>-0.173</v>
       </c>
       <c r="E2">
-        <v>-0.005199999999999996</v>
+        <v>-0.198</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,91 +609,88 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.44</v>
+        <v>2.7</v>
       </c>
       <c r="L2">
-        <v>0.3308912325899687</v>
+        <v>0.07433920704845816</v>
       </c>
       <c r="M2">
-        <v>6.753500000000001</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.03240642994241843</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4107968369829684</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>6.753500000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.03240642994241843</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.4107968369829684</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="V2">
-        <v>0.05806142034548944</v>
+        <v>0.07332490518331226</v>
       </c>
       <c r="W2">
-        <v>0.04676035350940294</v>
+        <v>0.01438061866345588</v>
       </c>
       <c r="X2">
-        <v>0.03783770667935572</v>
+        <v>0.03044506089345466</v>
       </c>
       <c r="Y2">
-        <v>0.008922646830047218</v>
+        <v>-0.01606444222999878</v>
       </c>
       <c r="Z2">
-        <v>0.0961749903213318</v>
+        <v>0.07019985310603426</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03755322532095369</v>
+        <v>0.02706831419273371</v>
       </c>
       <c r="AC2">
-        <v>-0.03755322532095369</v>
+        <v>-0.02706831419273371</v>
       </c>
       <c r="AD2">
-        <v>257.28</v>
+        <v>261.27</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>257.28</v>
+        <v>261.27</v>
       </c>
       <c r="AG2">
-        <v>245.18</v>
+        <v>249.67</v>
       </c>
       <c r="AH2">
-        <v>0.5524823913416939</v>
+        <v>0.6228574153097957</v>
       </c>
       <c r="AI2">
-        <v>0.4859107048424869</v>
+        <v>0.5152543041394679</v>
       </c>
       <c r="AJ2">
-        <v>0.5405441157017505</v>
+        <v>0.612131316350798</v>
       </c>
       <c r="AK2">
-        <v>0.4738876647725076</v>
+        <v>0.5039053827678769</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-7.78</v>
+        <v>-6.56</v>
       </c>
       <c r="AQ2">
         <v>-0</v>
@@ -715,9 +712,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="E3">
-        <v>0.07690000000000001</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -731,35 +725,32 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>5.94</v>
+        <v>-2.09</v>
       </c>
       <c r="L3">
-        <v>32.28260869565218</v>
+        <v>-4.976190476190476</v>
       </c>
       <c r="M3">
-        <v>1.99</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.02667560321715818</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.335016835016835</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.99</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.02667560321715818</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.335016835016835</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
         <v>0</v>
       </c>
@@ -767,55 +758,55 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.03648648648648649</v>
+        <v>-0.01321948134092347</v>
       </c>
       <c r="X3">
-        <v>0.03034644493696424</v>
+        <v>0.02125421650162471</v>
       </c>
       <c r="Y3">
-        <v>0.006140041549522253</v>
+        <v>-0.03447369784254818</v>
       </c>
       <c r="Z3">
-        <v>0.001056863871338311</v>
+        <v>0.002516778523489933</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03086997974927169</v>
+        <v>0.02238275631447389</v>
       </c>
       <c r="AC3">
-        <v>-0.03086997974927169</v>
+        <v>-0.02238275631447389</v>
       </c>
       <c r="AD3">
-        <v>8.779999999999999</v>
+        <v>9.17</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>8.779999999999999</v>
+        <v>9.17</v>
       </c>
       <c r="AG3">
-        <v>8.779999999999999</v>
+        <v>9.17</v>
       </c>
       <c r="AH3">
-        <v>0.1053010314224034</v>
+        <v>0.1598396374411713</v>
       </c>
       <c r="AI3">
-        <v>0.05261265580057526</v>
+        <v>0.06130908604666711</v>
       </c>
       <c r="AJ3">
-        <v>0.1053010314224034</v>
+        <v>0.1598396374411713</v>
       </c>
       <c r="AK3">
-        <v>0.05261265580057526</v>
+        <v>0.06130908604666711</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-7.78</v>
+        <v>-6.56</v>
       </c>
       <c r="AQ3">
         <v>-0</v>
@@ -838,10 +829,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.11</v>
+        <v>-0.173</v>
       </c>
       <c r="E4">
-        <v>-0.0873</v>
+        <v>-0.198</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -856,85 +847,82 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.5</v>
+        <v>4.79</v>
       </c>
       <c r="L4">
-        <v>0.2121212121212121</v>
+        <v>0.1334261838440111</v>
       </c>
       <c r="M4">
-        <v>4.763500000000001</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.03560164424514201</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.4536666666666667</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>4.763500000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.03560164424514201</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.4536666666666667</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="V4">
-        <v>0.09043348281016442</v>
+        <v>0.1054545454545455</v>
       </c>
       <c r="W4">
-        <v>0.05703422053231939</v>
+        <v>0.04198071866783523</v>
       </c>
       <c r="X4">
-        <v>0.0453289684217472</v>
+        <v>0.03963590528528461</v>
       </c>
       <c r="Y4">
-        <v>0.01170525211057219</v>
+        <v>0.002344813382550617</v>
       </c>
       <c r="Z4">
-        <v>0.1445255474452555</v>
+        <v>0.1024251069900143</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0442364708926357</v>
+        <v>0.03175387207099353</v>
       </c>
       <c r="AC4">
-        <v>-0.0442364708926357</v>
+        <v>-0.03175387207099353</v>
       </c>
       <c r="AD4">
-        <v>248.5</v>
+        <v>252.1</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>248.5</v>
+        <v>252.1</v>
       </c>
       <c r="AG4">
-        <v>236.4</v>
+        <v>240.5</v>
       </c>
       <c r="AH4">
-        <v>0.6500130787339785</v>
+        <v>0.696216514774924</v>
       </c>
       <c r="AI4">
-        <v>0.6853281853281853</v>
+        <v>0.7051748251748251</v>
       </c>
       <c r="AJ4">
-        <v>0.6385737439222041</v>
+        <v>0.6861626248216833</v>
       </c>
       <c r="AK4">
-        <v>0.6744650499286733</v>
+        <v>0.6952876553917318</v>
       </c>
       <c r="AL4">
         <v>0</v>
